--- a/src/testdata/PriceMatchIsbns.xlsx
+++ b/src/testdata/PriceMatchIsbns.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>url</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Lifetime</t>
   </si>
   <si>
-    <t>https://www.vitalsource.com/products/hdev-spencer-a-rathus-v9781337516587</t>
-  </si>
-  <si>
     <t>https://www.vitalsource.com/products/cengagenow-infotrac-vmentor-political-science-milton-c-cummings-david-wise-v9780495171034</t>
   </si>
   <si>
@@ -66,6 +63,33 @@
   </si>
   <si>
     <t>https://www.vitalsource.com/products/cengagenow-infotrac-for-hoeger-turner-hafen-39-s-wener-w-k-hoeger-lori-waite-v9780495190653</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/group-dynamics-donelson-r-forsyth-v9781337671088?term=9781337408851</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/research-methods-a-modular-approach-sherri-l-jackson-v9781305142879</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/community-based-corrections-leanne-fiftal-alarid-v9781305887664</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/learning-with-computers-ii-level-orange-grade-8-h-albert-napier-v9781285028385</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/phlebotomy-technician-specialist-kathryn-a-kalanick-v9781133709183</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/building-cross-platform-mobile-and-web-apps-for-pawan-lingras-v9781305855892</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/infotrac-wadsworth-american-history-resource-laura-a-belmonte-v9780495316411</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/online-psyktrek-3-1-3rd-edition-instant-wayne-weiten-v9780495186694</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/cengagenow-infotrac-vmentor-political-science-stephen-j-wayne-g-calvin-v9780495220435</t>
   </si>
 </sst>
 </file>
@@ -437,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -461,113 +485,311 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>42.49</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>101.49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>146.49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>27.99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38.49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>83.49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40.99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>55.99</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>107.49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>15.99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>21.99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>30.49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20.99</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
+        <v>28.49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>63.99</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4">
+        <v>25.99</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>35.49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>35.49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>42.49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>42.49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
         <v>80</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>178</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>125</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
         <v>80</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>178</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>125</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4">
         <v>80</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/testdata/PriceMatchIsbns.xlsx
+++ b/src/testdata/PriceMatchIsbns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -35,31 +35,58 @@
     <t>rental_term/isbn</t>
   </si>
   <si>
-    <t>https://www.vitalsource.com/products/introduction-to-paralegalism-perspectives-william-p-statsky-v9781305686298</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/3p-ebk-practice-behaviors-wb-human-behavior-in-cengage-learning-v9781285947914</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/professional-paramedic-volume-ii-medical-richard-beebe-v9781285224909</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/dewalt-plumbing-licensing-exam-guide-based-on-the-american-contractors-exam-v9781305809666</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/development-through-life-a-psychosocial-approach-barbara-m-newman-v9781337514996</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/conversaciones-creadoras-joan-brown-v9781305804364</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/supporting-play-in-early-childhood-environment-dorothy-justus-sluss-v9781305161818</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/elementary-algebra-algebra-within-reach-ron-larson-v9781285415529</t>
-  </si>
-  <si>
-    <t>1 Year</t>
+    <t>https://www.mhprofessional.com/9780022853297-usa-science-a-closer-look-grade-5-grade-level-deluxe-kit</t>
+  </si>
+  <si>
+    <t>9780022853297</t>
+  </si>
+  <si>
+    <t>https://www.mhprofessional.com/9780022022686-usa-treasures-a-readinglanguage-arts-program-grade-3-teachers-resource-package</t>
+  </si>
+  <si>
+    <t>9780022022686</t>
+  </si>
+  <si>
+    <t>https://www.mhprofessional.com/9780071596756-usa-organic-electronics-in-sensors-and-biotechnology-group</t>
+  </si>
+  <si>
+    <t>https://www.mhprofessional.com/9780071445634-usa-photomask-fabrication-technology-group</t>
+  </si>
+  <si>
+    <t>https://www.mhprofessional.com/9780073529585-usa-semiconductor-physics-and-devices</t>
+  </si>
+  <si>
+    <t>https://www.mhprofessional.com/9780071500937-usa-ic-mask-design</t>
+  </si>
+  <si>
+    <t>https://www.mhprofessional.com/9780071846622-usa-implementing-oracle-fusion-general-ledger-and-oracle-fusion-accounting-hub-group</t>
+  </si>
+  <si>
+    <t>9780071596756</t>
+  </si>
+  <si>
+    <t>9780071445634</t>
+  </si>
+  <si>
+    <t>9780071596763</t>
+  </si>
+  <si>
+    <t>9780071588911</t>
+  </si>
+  <si>
+    <t>9780073529585</t>
+  </si>
+  <si>
+    <t>9780071500937</t>
+  </si>
+  <si>
+    <t>9780071846622</t>
+  </si>
+  <si>
+    <t>9780071846639</t>
+  </si>
+  <si>
+    <t>9780071833530</t>
   </si>
 </sst>
 </file>
@@ -141,20 +168,404 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,10 +842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -456,94 +867,169 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2795.76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>901.6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>173</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>142</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>173</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>170.52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
-        <v>59.49</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>22.99</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>34.99</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>110.49</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
-        <v>40.49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>33.49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>38.99</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>31.99</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",B3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C11">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B11">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
+      <formula>NOT(ISERROR(SEARCH("No data",B4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
+      <formula>NOT(ISERROR(SEARCH("No field",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/testdata/PriceMatchIsbns.xlsx
+++ b/src/testdata/PriceMatchIsbns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>url</t>
   </si>
@@ -35,58 +35,88 @@
     <t>rental_term/isbn</t>
   </si>
   <si>
-    <t>https://www.mhprofessional.com/9780022853297-usa-science-a-closer-look-grade-5-grade-level-deluxe-kit</t>
-  </si>
-  <si>
-    <t>9780022853297</t>
-  </si>
-  <si>
-    <t>https://www.mhprofessional.com/9780022022686-usa-treasures-a-readinglanguage-arts-program-grade-3-teachers-resource-package</t>
-  </si>
-  <si>
-    <t>9780022022686</t>
-  </si>
-  <si>
-    <t>https://www.mhprofessional.com/9780071596756-usa-organic-electronics-in-sensors-and-biotechnology-group</t>
-  </si>
-  <si>
-    <t>https://www.mhprofessional.com/9780071445634-usa-photomask-fabrication-technology-group</t>
-  </si>
-  <si>
-    <t>https://www.mhprofessional.com/9780073529585-usa-semiconductor-physics-and-devices</t>
-  </si>
-  <si>
-    <t>https://www.mhprofessional.com/9780071500937-usa-ic-mask-design</t>
-  </si>
-  <si>
-    <t>https://www.mhprofessional.com/9780071846622-usa-implementing-oracle-fusion-general-ledger-and-oracle-fusion-accounting-hub-group</t>
-  </si>
-  <si>
-    <t>9780071596756</t>
-  </si>
-  <si>
-    <t>9780071445634</t>
-  </si>
-  <si>
-    <t>9780071596763</t>
-  </si>
-  <si>
-    <t>9780071588911</t>
-  </si>
-  <si>
-    <t>9780073529585</t>
-  </si>
-  <si>
-    <t>9780071500937</t>
-  </si>
-  <si>
-    <t>9780071846622</t>
-  </si>
-  <si>
-    <t>9780071846639</t>
-  </si>
-  <si>
-    <t>9780071833530</t>
+    <t>9780028034638</t>
+  </si>
+  <si>
+    <t>9780028050232</t>
+  </si>
+  <si>
+    <t>9780070132696</t>
+  </si>
+  <si>
+    <t>9780070168930</t>
+  </si>
+  <si>
+    <t>9780070511132</t>
+  </si>
+  <si>
+    <t>9780070577275</t>
+  </si>
+  <si>
+    <t>9780070612938</t>
+  </si>
+  <si>
+    <t>9780071369978</t>
+  </si>
+  <si>
+    <t>9780071373586</t>
+  </si>
+  <si>
+    <t>9780071376754</t>
+  </si>
+  <si>
+    <t>9780071392310</t>
+  </si>
+  <si>
+    <t>9780071403023</t>
+  </si>
+  <si>
+    <t>9780071408677</t>
+  </si>
+  <si>
+    <t>9780071422949</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0028034635.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0028050231.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0070132690.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0070168938.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0070511136.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0070577277.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0070612935.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/007136997X.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0071373586.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0071376755.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0071392319.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0071403027.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0071408673.html</t>
+  </si>
+  <si>
+    <t>https://www.mheducation.com/highered/product/0071422943.html</t>
   </si>
 </sst>
 </file>
@@ -110,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,14 +153,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,34 +177,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -242,326 +254,6 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -842,7 +534,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -866,168 +558,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>2795.76</v>
+        <v>93.33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>901.6</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>142</v>
+        <v>363.67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>142</v>
+        <v>108.67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>170.52</v>
+        <v>331</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>222</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="No data">
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No data">
       <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="No field">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No field">
       <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",B3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",B3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C11">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",C4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B11">
+  <conditionalFormatting sqref="C2:C15">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
-      <formula>NOT(ISERROR(SEARCH("No data",B4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No data",C2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No field">
-      <formula>NOT(ISERROR(SEARCH("No field",B4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No field",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testdata/PriceMatchIsbns.xlsx
+++ b/src/testdata/PriceMatchIsbns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>url</t>
   </si>
@@ -35,88 +35,226 @@
     <t>rental_term/isbn</t>
   </si>
   <si>
-    <t>9780028034638</t>
-  </si>
-  <si>
-    <t>9780028050232</t>
-  </si>
-  <si>
-    <t>9780070132696</t>
-  </si>
-  <si>
-    <t>9780070168930</t>
-  </si>
-  <si>
-    <t>9780070511132</t>
-  </si>
-  <si>
-    <t>9780070577275</t>
-  </si>
-  <si>
-    <t>9780070612938</t>
-  </si>
-  <si>
-    <t>9780071369978</t>
-  </si>
-  <si>
-    <t>9780071373586</t>
-  </si>
-  <si>
-    <t>9780071376754</t>
-  </si>
-  <si>
-    <t>9780071392310</t>
-  </si>
-  <si>
-    <t>9780071403023</t>
-  </si>
-  <si>
-    <t>9780071408677</t>
-  </si>
-  <si>
-    <t>9780071422949</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0028034635.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0028050231.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0070132690.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0070168938.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0070511136.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0070577277.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0070612935.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/007136997X.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0071373586.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0071376755.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0071392319.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0071403027.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0071408673.html</t>
-  </si>
-  <si>
-    <t>https://www.mheducation.com/highered/product/0071422943.html</t>
+    <t>9780131131309</t>
+  </si>
+  <si>
+    <t>9780131986190</t>
+  </si>
+  <si>
+    <t>9780132109277</t>
+  </si>
+  <si>
+    <t>9780132840798</t>
+  </si>
+  <si>
+    <t>9780132914307</t>
+  </si>
+  <si>
+    <t>9780133405095</t>
+  </si>
+  <si>
+    <t>9780133405132</t>
+  </si>
+  <si>
+    <t>9780133405156</t>
+  </si>
+  <si>
+    <t>9780133405163</t>
+  </si>
+  <si>
+    <t>9780133792874</t>
+  </si>
+  <si>
+    <t>9780133847116</t>
+  </si>
+  <si>
+    <t>9780133863710</t>
+  </si>
+  <si>
+    <t>9780133864649</t>
+  </si>
+  <si>
+    <t>9780133914139</t>
+  </si>
+  <si>
+    <t>9780133946048</t>
+  </si>
+  <si>
+    <t>9780134017617</t>
+  </si>
+  <si>
+    <t>9780134083339</t>
+  </si>
+  <si>
+    <t>9780134324821</t>
+  </si>
+  <si>
+    <t>9780134324913</t>
+  </si>
+  <si>
+    <t>9780134380124</t>
+  </si>
+  <si>
+    <t>9780134418162</t>
+  </si>
+  <si>
+    <t>9780134418537</t>
+  </si>
+  <si>
+    <t>9780134424521</t>
+  </si>
+  <si>
+    <t>9780134450278</t>
+  </si>
+  <si>
+    <t>9780134465739</t>
+  </si>
+  <si>
+    <t>9780134539423</t>
+  </si>
+  <si>
+    <t>9780134711393</t>
+  </si>
+  <si>
+    <t>9780134800257</t>
+  </si>
+  <si>
+    <t>9780134828152</t>
+  </si>
+  <si>
+    <t>9780134879260</t>
+  </si>
+  <si>
+    <t>9780135150009</t>
+  </si>
+  <si>
+    <t>9780135195154</t>
+  </si>
+  <si>
+    <t>9780135237205</t>
+  </si>
+  <si>
+    <t>9781292128900</t>
+  </si>
+  <si>
+    <t>9781323787175</t>
+  </si>
+  <si>
+    <t>9781323828519</t>
+  </si>
+  <si>
+    <t>9786073233323</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/listening-effectively-achieving-high-standards-in-communication-0131131303</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/data-structures-outside-in-with-java-9780131986190</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/lab-manual-for-applied-physics-9780132109277</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/student-cd-for-go-with-office-2010-volume-1-9780132840798</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/managerial-accounting-decision-making-and-motivation-0132914301</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/essentials-of-fire-fighting-9780133405095</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/exam-prep-for-essentials-of-firefighting-9780133405132</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/skills-handbook-for-essentials-of-firefighting-9780133405156</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/student-workbook-for-essentials-of-firefighting-9780133405163</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/cpt-2011-prof-edcompre-hlths-wbicd9-pkg-9780133792874</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/essntls-of-fire-fightings-workbk-pkg-9780133847116</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/college-physics-books-a-la-carte-plus-mastering-physics-0133863719</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/goodes-world-atlas-9780133864649</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/think-critically-books-a-la-carte-0133914135</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/in-concert-an-integrated-approach-to-reading-and-writing-0133946045</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/strength-training-0134017617</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/study-guide-for-principles-of-risk-management-and-insurance-9780134083339</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/entrepreneurship-owning-your-future-high-school-version-9780134324821</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/student-activity-workbook-for-entrepreneurship-owning-9780134324913</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/mathematics-in-action-algebraic-graphical-and-trigonometric-0134380126</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/students-solutions-manual-for-college-algebra-with-9780134418162</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/students-solutions-manual-for-algebra-and-trigonometry-9780134418537</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/allyn-bacon-guide-to-writing-9780134424521</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/astronomy-today-9780134450278</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/mydietanalysissacclive-right-acc-pkg-9780134465739</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/diversity-amid-globalization-world-regions-environment-9780134539423</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/child-development-subscription-0134711394</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/my-health-subscription-0134800257</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/photo-atlas-anatphys-ess-ap-alc-pkg-9780134828152</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/cpt-2018-professional-edition-0134879260</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/student-activity-workbook-for-entrepreneurship-owning-9780135150009</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/emstestg.commybradylab-with-etxemt-revw-plus-9780135195154</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/nursing-vol-1v2pe-reviewratnls-nclex-pkg-9780135237205</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/economic-approaches-to-organization-9781292128900</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/laboratory-investigations-in-anatomy-physiology-package-9781323787175</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/astronomy-the-universe-at-a-glance-package-for-queens-9781323828519</t>
+  </si>
+  <si>
+    <t>http://www.mypearsonstore.com/bookstore/microeconomГ­a-versiГіn-para-lationamГ©rica-6073233329</t>
   </si>
 </sst>
 </file>
@@ -192,7 +330,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -254,6 +392,38 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -534,7 +704,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -563,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>93.33</v>
+        <v>5.94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>88</v>
+        <v>129.38999999999999</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>107</v>
+        <v>31.16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>363.67</v>
+        <v>62.7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>34</v>
+        <v>157.46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,10 +788,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>108.67</v>
+        <v>71.73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>331</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
+        <v>33.25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +821,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>20</v>
+        <v>35.15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,10 +832,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>27</v>
+        <v>279.68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>32</v>
+        <v>106.88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>142</v>
+        <v>211.16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,10 +865,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>26</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,14 +876,267 @@
         <v>16</v>
       </c>
       <c r="B15" s="3">
-        <v>222</v>
+        <v>54.63</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20.85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>41.99</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>86.45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>24.32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42.99</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>32.49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32.49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>53.2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>23.75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3">
+        <v>76.95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3">
+        <v>100.99</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B29" s="3">
+        <v>40.99</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3">
+        <v>116.71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3">
+        <v>24.32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
+        <v>137.04</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>461.8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>72.58</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>192.94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3">
+        <v>100</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
+        <v>133</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
+  <conditionalFormatting sqref="B2:B38">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No data">
       <formula>NOT(ISERROR(SEARCH("No data",B2)))</formula>
     </cfRule>
@@ -721,7 +1144,7 @@
       <formula>NOT(ISERROR(SEARCH("No field",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
+  <conditionalFormatting sqref="C2:C38">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No data">
       <formula>NOT(ISERROR(SEARCH("No data",C2)))</formula>
     </cfRule>
